--- a/data files/FMreformatted for coding.xlsx
+++ b/data files/FMreformatted for coding.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="210" windowWidth="20115" windowHeight="9150" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="210" windowWidth="20115" windowHeight="9150" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2008" sheetId="2" r:id="rId1"/>
@@ -1150,7 +1150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AC24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
@@ -1949,12 +1949,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U51"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U51" sqref="U51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
     <col min="3" max="3" width="3.85546875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="6" max="7" width="2.5703125" customWidth="1"/>
@@ -2107,7 +2108,7 @@
         <v>49</v>
       </c>
       <c r="U3" t="str">
-        <f t="shared" ref="U3:U28" si="0">B3&amp;C3&amp;D3&amp;E3&amp;F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3&amp;N3&amp;O3&amp;P3&amp;Q3&amp;R3&amp;S3&amp;T3</f>
+        <f t="shared" ref="U3:U27" si="0">B3&amp;C3&amp;D3&amp;E3&amp;F3&amp;G3&amp;H3&amp;I3&amp;J3&amp;K3&amp;L3&amp;M3&amp;N3&amp;O3&amp;P3&amp;Q3&amp;R3&amp;S3&amp;T3</f>
         <v>1 Money enough to live right and pay the bills&lt;br /&gt;2 Inflation and high prices&lt;br /&gt;3 Crime and lawlessness&lt;br /&gt;4 Drug abuse&lt;br /&gt;4 Environmental pollution</v>
       </c>
     </row>
